--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value476.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value476.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.006510992474098</v>
+        <v>0.9990977644920349</v>
       </c>
       <c r="B1">
-        <v>1.704808339982015</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.262369249753517</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.74038506258961</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.027005057219456</v>
+        <v>1.109480381011963</v>
       </c>
     </row>
   </sheetData>
